--- a/Client/Resources/Data/Map/Map.xlsx
+++ b/Client/Resources/Data/Map/Map.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GA_6th_2Q_Project\GA_6th_2Q_Project\Client\Resources\Data\Map\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC19536-C3A5-4D92-9333-75BB62A65F2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,14 +24,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Stage1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grid가로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grid세로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapYoffset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tileXoffset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tileYoffset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +103,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +380,774 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>COUNTA(A3:A280)/10</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>COUNTA(A7:P7)</f>
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <f>COUNTA(A6:A12)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>-50</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>2</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12">
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+      <c r="P12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <f>COUNTA(A16:A22)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>-50</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Resources/Data/Map/Map.xlsx
+++ b/Client/Resources/Data/Map/Map.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GA_6th_2Q_Project\GA_6th_2Q_Project\Client\Resources\Data\Map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC19536-C3A5-4D92-9333-75BB62A65F2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E9C832-EAE4-4E86-9765-CBEE916B767B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -443,352 +443,352 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
+      <c r="I7">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
       <c r="J7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P7">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="I8">
         <v>2</v>
       </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
       <c r="J8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="I9">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
       <c r="J9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">

--- a/Client/Resources/Data/Map/Map.xlsx
+++ b/Client/Resources/Data/Map/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\ArcheTypeZero\GA_6th_2Q_Project\Client\Resources\Data\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E9C832-EAE4-4E86-9765-CBEE916B767B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C356888-9336-458E-A1A8-58CF9D366ED7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -384,7 +384,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -443,352 +443,352 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
